--- a/biology/Origine et évolution du vivant/Chronologie_isotopique/Chronologie_isotopique.xlsx
+++ b/biology/Origine et évolution du vivant/Chronologie_isotopique/Chronologie_isotopique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chronologie isotopique est fondée sur les variations des températures moyennes de la planète au cours du temps, déduites des proportions des isotopes 16O et 18O de l'oxygène (stades isotopiques de l'oxygène ou SIO) trouvées dans les carottages océaniques et glaciaires réalisés par les chercheurs. Valable à l'échelle planétaire, elle se substitue aujourd'hui aux chronologies locales fondées sur les périodes glaciaires traditionnelles.
 Dans la littérature, elle est généralement signifiée par les initiales anglaises « MIS » (Marine isotope stage).
@@ -512,7 +524,9 @@
           <t>Faiblesses des chronologies traditionnelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Quaternaire a connu de grandes variations climatiques ayant entrainé une alternance de phases glaciaires et interglaciaires. Les traces de ces glaciations (moraines, nappes fluvio-glaciaires, etc.), et en particulier les glaciations alpines pour l'Europe, ont été utilisées à partir du début du XXe siècle pour établir une chronologie du Quaternaire. Toutefois, ce système présente un certain nombre de limites liées au caractère localisé et discontinu de ces phénomènes. En raison de différences de latitude et de relief, les glaciations des Alpes, de l'Europe du Nord-Ouest et de l'Amérique du Nord ne sont pas exactement synchrones et il est très délicat d'établir des corrélations entre ces différentes zones.
 De plus, certaines glaciations traditionnelles, en particulier la glaciation de Riss, enjambent plusieurs stades glaciaires isotopiques, au point que les divergences se multiplient sur les dates limites qu'il convient de leur attribuer.
@@ -544,7 +558,9 @@
           <t>Courbe isotopique de l'oxygène</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un enregistrement continu et global des variations de température a donc été recherché à partir des années 1950. Il a été fourni par des carottages dans les sédiments des fonds océaniques et dans les calottes glaciaires du Groenland ou de l'Antarctique. La proportion entre les isotopes 16 et 18 de l'oxygène contenus dans ces sédiments (en particulier dans les foraminifères fossiles des sédiments océaniques) est corrélée à celle de l'eau de mer, elle-même liée à la température moyenne de l'atmosphère terrestre. Une courbe de variation de la température moyenne de la planète a ainsi pu être établie pour les 5 derniers millions d'années. Elle a ensuite été confrontée aux datations obtenues par d'autres méthodes pour aboutir à une chronologie isotopique désormais universellement reconnue. 
 La courbe isotopique de l'oxygène a permis de définir une alternance de stades froids et tempérés, numérotés à partir du stade tempéré actuel ou stade 1, en remontant dans le temps. Ces stades sont appelés stades isotopiques de l'oxygène (SIO). Les stades froids portent des numéros pairs (2, 4, 6, etc.) et les stades tempérés portent des numéros impairs (3, 5, 7, etc.). Ils peuvent correspondre respectivement aux phases glaciaires et aux interglaciaires des anciennes chronologies locales, mais aussi à des épisodes intermédiaires, les interstades.
@@ -577,9 +593,11 @@
           <t>Liste des stades climatiques sur 900 000 ans</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste qui suit donne les dates de début (chiffres en milliers d'années avant le présent) des différents stades climatiques du Pléistocène moyen et supérieur, d'après l'étude 2005 de Lisiecki &amp; Raymo (pile benthique LR04) [1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste qui suit donne les dates de début (chiffres en milliers d'années avant le présent) des différents stades climatiques du Pléistocène moyen et supérieur, d'après l'étude 2005 de Lisiecki &amp; Raymo (pile benthique LR04)  :
 SIO 1 - 14 ka, fin du Dryas récent qui marque le début de l'Holocène. L'étude LR04 a dû interpréter ici une période de temps moins bien documentée, et la date usuelle de 11,7 ka peut être préférée.
 SIO 2 - 29 ka (début du dernier maximum glaciaire)
 SIO 3 - 57 ka
